--- a/Task6/test/UniversityDLLTests/TestFiles/SessionResult.xlsx
+++ b/Task6/test/UniversityDLLTests/TestFiles/SessionResult.xlsx
@@ -30,7 +30,7 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>ExamName1</t>
+    <t>Subject1</t>
   </si>
   <si>
     <t>Group1</t>
@@ -72,10 +72,10 @@
     <t>9</t>
   </si>
   <si>
-    <t>ExamName2</t>
-  </si>
-  <si>
-    <t>ExamName3</t>
+    <t>Subject2</t>
+  </si>
+  <si>
+    <t>Subject3</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
@@ -546,7 +546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a1141522-bf86-49ae-a755-4156053ebaf7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908400da-c13b-4ddc-ad1e-3f08ddec8ab7}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -787,7 +787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0636c4f1-7859-4136-a12b-464b2770bedb}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0bf320b9-976a-4f29-8fdf-ec38cb83a704}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Task6/test/UniversityDLLTests/TestFiles/SessionResult.xlsx
+++ b/Task6/test/UniversityDLLTests/TestFiles/SessionResult.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Exam</t>
   </si>
@@ -63,19 +63,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>Group3</t>
-  </si>
-  <si>
-    <t>Student5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Subject2</t>
-  </si>
-  <si>
-    <t>Subject3</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
@@ -238,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D16" totalsRowShown="0">
-  <autoFilter ref="A1:D16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D9" totalsRowShown="0">
+  <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Exam"/>
     <tableColumn id="2" name="Group"/>
@@ -546,8 +534,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908400da-c13b-4ddc-ad1e-3f08ddec8ab7}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cec70e16-0164-4095-936e-ff6f97c9ee6c}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -625,156 +613,58 @@
     </row>
     <row r="6" spans="1:4" ht="12.75">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12.75">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12.75">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="12.75">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.75">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="12.75">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="12.75">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="12.75">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0bf320b9-976a-4f29-8fdf-ec38cb83a704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176587bc-6a22-41ad-bf0a-e24905cc2e34}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -796,7 +686,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
